--- a/biology/Botanique/Liste_des_espèces_du_genre_Inga/Liste_des_espèces_du_genre_Inga.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Inga/Liste_des_espèces_du_genre_Inga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Inga</t>
+          <t>Liste_des_espèces_du_genre_Inga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La liste des espèces du genre Inga  comprend près de 400 noms d'espèces acceptées, ce qui fait de ce genre l'un des plus importants de la famille des Fabaceae. Selon la base de données The Plant List, 958 espèces rattachées au genre Inga ont été décrites, mais seuls 392 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 436 sont considérées comme des synonymes, 124 sont non résolues et 6 mal appliquées[1].
+La liste des espèces du genre Inga  comprend près de 400 noms d'espèces acceptées, ce qui fait de ce genre l'un des plus importants de la famille des Fabaceae. Selon la base de données The Plant List, 958 espèces rattachées au genre Inga ont été décrites, mais seuls 392 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 436 sont considérées comme des synonymes, 124 sont non résolues et 6 mal appliquées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Inga</t>
+          <t>Liste_des_espèces_du_genre_Inga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ILDIS (International Legume Database and Information Service)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ILDIS (International Legume Database and Information Service) :
 Sommaire :
 Haut – A
 B
@@ -849,7 +863,7 @@
 Inga semialata (Vell.Conc.) Martius var. latifolia Benth.
 Inga semialata (Vell.Conc.) Martius var. semialata
 Inga semiglabra Pittier
-Inga sertulifera DC. [1524]
+Inga sertulifera DC. 
 Inga sertulifera DC. var. leptopus (Benth.) Benth.
 Inga sertulifera DC. var. minor Benth.
 Inga sertulifera DC. var. sertulifera
